--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/01. Báo giá bảo hành/BG_.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/01. Báo giá bảo hành/BG_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang1\03.BaoGiaBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 10\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -119,19 +119,19 @@
     <t>VT_Module_MC60</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 05 tháng 01 Năm 2024</t>
-  </si>
-  <si>
     <t>Mã số phiếu: BG240105</t>
   </si>
   <si>
     <t>Hạn BH</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 05 tháng 01 Năm 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,6 +616,81 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,81 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1108,86 +1108,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="62" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="59" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="65" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="68" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="44" t="s">
+      <c r="A5" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="2"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>8</v>
@@ -1277,7 +1277,7 @@
       <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="35">
         <v>861359036808234</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -1310,7 +1310,7 @@
       <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="35">
         <v>862205051178343</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1337,17 +1337,17 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="18">
         <f>SUM(J11:J12)</f>
         <v>470000</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1385,31 +1385,31 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="E16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="12"/>
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -1467,20 +1467,20 @@
       <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
       <c r="AA22" s="4"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1558,16 +1558,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A22:E22"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B8:C8"/>
@@ -1576,6 +1566,16 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
